--- a/TimeLog/RetroPc_Timesheet_BartoszMachniak.xlsx
+++ b/TimeLog/RetroPc_Timesheet_BartoszMachniak.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A885174D-182D-4136-B1AE-CBFE9F05A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE531F8E-7166-4274-BB72-55F1169F7B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Zadanie</t>
   </si>
@@ -57,13 +57,7 @@
     <t>Zaznajomienie się z technologią dot. UI (Kotlin, MVVM, JetPack Compose, XML)</t>
   </si>
   <si>
-    <t>w trakcie</t>
-  </si>
-  <si>
     <t>Zaprojektowanie UI i konsultacja z zespołem</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Pisanie UI</t>
@@ -477,7 +471,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,41 +543,41 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
